--- a/de.uni_paderborn.fujaba.muml.onetomanycommunicationschemata.synthesis/doc/TestOverview.xlsx
+++ b/de.uni_paderborn.fujaba.muml.onetomanycommunicationschemata.synthesis/doc/TestOverview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="22">
   <si>
     <t>Unicast</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>LoadBalancing</t>
+  </si>
+  <si>
+    <t>UniReceive</t>
   </si>
 </sst>
 </file>
@@ -435,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -446,6 +455,7 @@
     <col min="4" max="4" width="21.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -579,6 +589,12 @@
       <c r="D15" t="s">
         <v>7</v>
       </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -649,6 +665,12 @@
       <c r="D20" t="s">
         <v>7</v>
       </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
@@ -662,6 +684,40 @@
       </c>
       <c r="D21" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6">

--- a/de.uni_paderborn.fujaba.muml.onetomanycommunicationschemata.synthesis/doc/TestOverview.xlsx
+++ b/de.uni_paderborn.fujaba.muml.onetomanycommunicationschemata.synthesis/doc/TestOverview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="22">
   <si>
     <t>Unicast</t>
   </si>
@@ -445,7 +445,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -685,6 +685,12 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
@@ -719,12 +725,26 @@
       <c r="D23" t="s">
         <v>7</v>
       </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>

--- a/de.uni_paderborn.fujaba.muml.onetomanycommunicationschemata.synthesis/doc/TestOverview.xlsx
+++ b/de.uni_paderborn.fujaba.muml.onetomanycommunicationschemata.synthesis/doc/TestOverview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="25">
   <si>
     <t>Unicast</t>
   </si>
@@ -30,9 +30,6 @@
     <t>condition</t>
   </si>
   <si>
-    <t>do</t>
-  </si>
-  <si>
     <t>Mutlicast</t>
   </si>
   <si>
@@ -78,10 +75,22 @@
     <t>correct</t>
   </si>
   <si>
-    <t>LoadBalancing</t>
-  </si>
-  <si>
     <t>UniReceive</t>
+  </si>
+  <si>
+    <t>LoadBalancing maxWT</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
+  </si>
+  <si>
+    <t>memory exceedance</t>
   </si>
 </sst>
 </file>
@@ -97,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,11 +119,146 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -123,10 +267,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -137,8 +303,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A7:G24" totalsRowShown="0">
-  <autoFilter ref="A7:G24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A7:G51" totalsRowShown="0">
+  <autoFilter ref="A7:G51">
     <filterColumn colId="3"/>
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
@@ -147,7 +313,7 @@
   <tableColumns count="7">
     <tableColumn id="1" name="test model"/>
     <tableColumn id="2" name="condition"/>
-    <tableColumn id="3" name="do"/>
+    <tableColumn id="3" name="action"/>
     <tableColumn id="4" name="lower/upper bound"/>
     <tableColumn id="5" name="model checking  multiplicity 1"/>
     <tableColumn id="6" name="modell checking  multiplicity 2"/>
@@ -442,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -460,293 +626,592 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
+      <c r="B18" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="16"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/de.uni_paderborn.fujaba.muml.onetomanycommunicationschemata.synthesis/doc/TestOverview.xlsx
+++ b/de.uni_paderborn.fujaba.muml.onetomanycommunicationschemata.synthesis/doc/TestOverview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="26">
   <si>
     <t>Unicast</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>memory exceedance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> correct</t>
   </si>
 </sst>
 </file>
@@ -611,7 +614,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -839,6 +842,13 @@
       <c r="D19" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E19" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="22" t="s">
@@ -873,6 +883,12 @@
       <c r="D21" t="s">
         <v>5</v>
       </c>
+      <c r="E21" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -887,6 +903,12 @@
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E22" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -898,9 +920,16 @@
       <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D23" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
@@ -915,8 +944,12 @@
       <c r="D24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="E24" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>18</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="26" spans="1:7">

--- a/de.uni_paderborn.fujaba.muml.onetomanycommunicationschemata.synthesis/doc/TestOverview.xlsx
+++ b/de.uni_paderborn.fujaba.muml.onetomanycommunicationschemata.synthesis/doc/TestOverview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="26">
   <si>
     <t>Unicast</t>
   </si>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1005,6 +1005,12 @@
       <c r="D28" t="s">
         <v>6</v>
       </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
@@ -1068,6 +1074,12 @@
       <c r="D32" t="s">
         <v>6</v>
       </c>
+      <c r="E32" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
@@ -1082,8 +1094,12 @@
       <c r="D33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="E33" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="G33" s="1"/>
     </row>
     <row r="35" spans="1:7">

--- a/de.uni_paderborn.fujaba.muml.onetomanycommunicationschemata.synthesis/doc/TestOverview.xlsx
+++ b/de.uni_paderborn.fujaba.muml.onetomanycommunicationschemata.synthesis/doc/TestOverview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="26">
   <si>
     <t>Unicast</t>
   </si>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1025,8 +1025,12 @@
       <c r="D29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -1042,8 +1046,12 @@
       <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">

--- a/de.uni_paderborn.fujaba.muml.onetomanycommunicationschemata.synthesis/doc/TestOverview.xlsx
+++ b/de.uni_paderborn.fujaba.muml.onetomanycommunicationschemata.synthesis/doc/TestOverview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="26">
   <si>
     <t>Unicast</t>
   </si>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1050,7 +1050,7 @@
         <v>18</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1066,8 +1066,12 @@
       <c r="D31" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="1"/>
+      <c r="E31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
